--- a/biology/Histoire de la zoologie et de la botanique/Musée_d'histoire_naturelle_de_l'île_Maurice/Musée_d'histoire_naturelle_de_l'île_Maurice.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Musée_d'histoire_naturelle_de_l'île_Maurice/Musée_d'histoire_naturelle_de_l'île_Maurice.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_d%27histoire_naturelle_de_l%27%C3%AEle_Maurice</t>
+          <t>Musée_d'histoire_naturelle_de_l'île_Maurice</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le musée national d'histoire naturelle, autrefois musée Desjardins, est un musée situé à Port-Louis, capitale de l'île Maurice[1]. C'est le musée le plus ancien du pays et le plus ancien d'Afrique australe. Le premier étage abrite également l'Institut de Maurice.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le musée national d'histoire naturelle, autrefois musée Desjardins, est un musée situé à Port-Louis, capitale de l'île Maurice. C'est le musée le plus ancien du pays et le plus ancien d'Afrique australe. Le premier étage abrite également l'Institut de Maurice.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_d%27histoire_naturelle_de_l%27%C3%AEle_Maurice</t>
+          <t>Musée_d'histoire_naturelle_de_l'île_Maurice</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée Desjardin a ouvert ses portes au public en 1842 grâce à la collection du naturaliste et zoologiste Julien Desjardins transmise en 1840 après sa mort. Il est installé ensuite dans un bâtiment inscrit aujourd'hui aux monuments historiques et construit entre 1880 et 1884, en face du jardin de la Compagnie, dans le centre historique de la capitale. Cet  édifice[Note 1], œuvre de l'architecte britannique Mann, s'inspire du musée de Colombo, avec une loggia à l'italienne.
 Le musée présente des collections commençant au début du XIXe siècle de spécimens de la faune et de la flore des Mascareignes, en particulier des spécimens endémiques de l'île Maurice. Le squelette du célèbre dodo mauricien est exposé au public. Il a été acquis par le musée en 1900, après sa découverte à la Caverne Patate.
